--- a/Home Credit Group/data/HomeCredit_columns_description_Ray.xlsx
+++ b/Home Credit Group/data/HomeCredit_columns_description_Ray.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Github/Kaggle/Home Credit Group/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8E46E2-248F-4548-9EF5-1D66754B0EBF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48E1954-3F73-7B4A-8FE9-9AE09F95CB47}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32000" yWindow="0" windowWidth="15960" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="17960" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomeCredit_columns_description_" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="391">
   <si>
     <t>Table</t>
   </si>
@@ -1187,6 +1187,12 @@
   </si>
   <si>
     <t>or This</t>
+  </si>
+  <si>
+    <t>Averaged</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -2052,7 +2058,7 @@
   <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G125" sqref="G125"/>
+      <selection activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4391,6 +4397,12 @@
       <c r="E125" t="s">
         <v>206</v>
       </c>
+      <c r="F125" t="s">
+        <v>390</v>
+      </c>
+      <c r="G125" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
@@ -4440,7 +4452,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>129</v>
       </c>
@@ -4457,7 +4469,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>130</v>
       </c>
@@ -4471,7 +4483,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>131</v>
       </c>
@@ -4488,7 +4500,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>132</v>
       </c>
@@ -4504,8 +4516,14 @@
       <c r="E132" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132" t="s">
+        <v>389</v>
+      </c>
+      <c r="G132" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>133</v>
       </c>
@@ -4518,8 +4536,14 @@
       <c r="D133" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133" t="s">
+        <v>389</v>
+      </c>
+      <c r="G133" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>134</v>
       </c>
@@ -4533,7 +4557,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>135</v>
       </c>
@@ -4547,7 +4571,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>136</v>
       </c>
@@ -4561,7 +4585,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>137</v>
       </c>
@@ -4575,7 +4599,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>138</v>
       </c>
@@ -4589,7 +4613,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>139</v>
       </c>
@@ -4603,7 +4627,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>140</v>
       </c>
@@ -4620,7 +4644,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>141</v>
       </c>
@@ -4634,7 +4658,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>142</v>
       </c>
@@ -4651,7 +4675,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>143</v>
       </c>
@@ -4668,7 +4692,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>144</v>
       </c>

--- a/Home Credit Group/data/HomeCredit_columns_description_Ray.xlsx
+++ b/Home Credit Group/data/HomeCredit_columns_description_Ray.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Github/Kaggle/Home Credit Group/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raylai/Desktop/RLWH/Kaggle/Home Credit Group/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48E1954-3F73-7B4A-8FE9-9AE09F95CB47}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C003E9BD-5D53-2746-A64C-EB564AA96F25}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="17960" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomeCredit_columns_description_" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HomeCredit_columns_description_!$A$1:$I$221</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="393">
   <si>
     <t>Table</t>
   </si>
@@ -1193,13 +1196,19 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>dtype</t>
+  </si>
+  <si>
+    <t>Categorical</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2055,20 +2064,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H221"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G141" sqref="G141"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="69.83203125" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2082,16 +2095,19 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1" t="s">
         <v>379</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>384</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2104,11 +2120,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2121,11 +2137,11 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -2138,11 +2154,14 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H4" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -2155,11 +2174,11 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7</v>
       </c>
@@ -2172,11 +2191,11 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8</v>
       </c>
@@ -2189,11 +2208,11 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9</v>
       </c>
@@ -2206,11 +2225,11 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10</v>
       </c>
@@ -2223,14 +2242,14 @@
       <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>383</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>11</v>
       </c>
@@ -2243,14 +2262,14 @@
       <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>383</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>12</v>
       </c>
@@ -2263,14 +2282,14 @@
       <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>383</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>13</v>
       </c>
@@ -2283,14 +2302,14 @@
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>383</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>14</v>
       </c>
@@ -2303,14 +2322,14 @@
       <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>380</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>15</v>
       </c>
@@ -2323,11 +2342,11 @@
       <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>16</v>
       </c>
@@ -2340,11 +2359,11 @@
       <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>17</v>
       </c>
@@ -2357,14 +2376,14 @@
       <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>380</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>18</v>
       </c>
@@ -2377,11 +2396,11 @@
       <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>19</v>
       </c>
@@ -2397,14 +2416,14 @@
       <c r="E18" t="s">
         <v>39</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>380</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>20</v>
       </c>
@@ -2420,11 +2439,11 @@
       <c r="E19" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>21</v>
       </c>
@@ -2440,14 +2459,14 @@
       <c r="E20" t="s">
         <v>42</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>386</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -2463,11 +2482,11 @@
       <c r="E21" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -2483,11 +2502,11 @@
       <c r="E22" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>24</v>
       </c>
@@ -2500,11 +2519,11 @@
       <c r="D23" t="s">
         <v>50</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>25</v>
       </c>
@@ -2517,11 +2536,11 @@
       <c r="D24" t="s">
         <v>52</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>26</v>
       </c>
@@ -2534,11 +2553,11 @@
       <c r="D25" t="s">
         <v>54</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>27</v>
       </c>
@@ -2551,11 +2570,11 @@
       <c r="D26" t="s">
         <v>56</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>28</v>
       </c>
@@ -2568,11 +2587,11 @@
       <c r="D27" t="s">
         <v>58</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>29</v>
       </c>
@@ -2585,11 +2604,11 @@
       <c r="D28" t="s">
         <v>56</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>30</v>
       </c>
@@ -2602,11 +2621,11 @@
       <c r="D29" t="s">
         <v>61</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>31</v>
       </c>
@@ -2619,11 +2638,11 @@
       <c r="D30" t="s">
         <v>63</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>32</v>
       </c>
@@ -2636,11 +2655,11 @@
       <c r="D31" t="s">
         <v>65</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>33</v>
       </c>
@@ -2653,14 +2672,14 @@
       <c r="D32" t="s">
         <v>67</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>387</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>34</v>
       </c>
@@ -2673,14 +2692,14 @@
       <c r="D33" t="s">
         <v>69</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>388</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>35</v>
       </c>
@@ -2693,11 +2712,11 @@
       <c r="D34" t="s">
         <v>71</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>36</v>
       </c>
@@ -2713,11 +2732,11 @@
       <c r="E35" t="s">
         <v>74</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>37</v>
       </c>
@@ -2730,11 +2749,11 @@
       <c r="D36" t="s">
         <v>76</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>38</v>
       </c>
@@ -2747,11 +2766,11 @@
       <c r="D37" t="s">
         <v>78</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>39</v>
       </c>
@@ -2764,11 +2783,11 @@
       <c r="D38" t="s">
         <v>80</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>40</v>
       </c>
@@ -2781,11 +2800,11 @@
       <c r="D39" t="s">
         <v>82</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>41</v>
       </c>
@@ -2798,11 +2817,11 @@
       <c r="D40" t="s">
         <v>84</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>42</v>
       </c>
@@ -2815,11 +2834,11 @@
       <c r="D41" t="s">
         <v>86</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>43</v>
       </c>
@@ -2832,11 +2851,11 @@
       <c r="D42" t="s">
         <v>88</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>44</v>
       </c>
@@ -2852,11 +2871,11 @@
       <c r="E43" t="s">
         <v>91</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>45</v>
       </c>
@@ -2872,11 +2891,11 @@
       <c r="E44" t="s">
         <v>91</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>46</v>
       </c>
@@ -2892,11 +2911,11 @@
       <c r="E45" t="s">
         <v>91</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>47</v>
       </c>
@@ -2912,11 +2931,11 @@
       <c r="E46" t="s">
         <v>91</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>48</v>
       </c>
@@ -2932,11 +2951,11 @@
       <c r="E47" t="s">
         <v>91</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>49</v>
       </c>
@@ -2952,11 +2971,11 @@
       <c r="E48" t="s">
         <v>91</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>50</v>
       </c>
@@ -2972,14 +2991,14 @@
       <c r="E49" t="s">
         <v>91</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>380</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>51</v>
       </c>
@@ -2995,14 +3014,14 @@
       <c r="E50" t="s">
         <v>91</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>380</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>52</v>
       </c>
@@ -3018,11 +3037,11 @@
       <c r="E51" t="s">
         <v>91</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>53</v>
       </c>
@@ -3038,11 +3057,11 @@
       <c r="E52" t="s">
         <v>91</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>54</v>
       </c>
@@ -3058,11 +3077,11 @@
       <c r="E53" t="s">
         <v>91</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>55</v>
       </c>
@@ -3078,11 +3097,11 @@
       <c r="E54" t="s">
         <v>91</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>56</v>
       </c>
@@ -3098,11 +3117,11 @@
       <c r="E55" t="s">
         <v>91</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>57</v>
       </c>
@@ -3118,11 +3137,11 @@
       <c r="E56" t="s">
         <v>91</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>58</v>
       </c>
@@ -3138,11 +3157,11 @@
       <c r="E57" t="s">
         <v>91</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>59</v>
       </c>
@@ -3158,11 +3177,11 @@
       <c r="E58" t="s">
         <v>91</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>60</v>
       </c>
@@ -3178,11 +3197,11 @@
       <c r="E59" t="s">
         <v>91</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>61</v>
       </c>
@@ -3201,8 +3220,9 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>62</v>
       </c>
@@ -3221,8 +3241,9 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>63</v>
       </c>
@@ -3241,8 +3262,9 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>64</v>
       </c>
@@ -3261,8 +3283,9 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>65</v>
       </c>
@@ -3281,8 +3304,9 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>66</v>
       </c>
@@ -3301,8 +3325,9 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>67</v>
       </c>
@@ -3321,8 +3346,9 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>68</v>
       </c>
@@ -3341,8 +3367,9 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>69</v>
       </c>
@@ -3361,8 +3388,9 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>70</v>
       </c>
@@ -3381,8 +3409,9 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>71</v>
       </c>
@@ -3401,8 +3430,9 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>72</v>
       </c>
@@ -3421,8 +3451,9 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>73</v>
       </c>
@@ -3441,8 +3472,9 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>74</v>
       </c>
@@ -3461,8 +3493,9 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>75</v>
       </c>
@@ -3481,8 +3514,9 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>76</v>
       </c>
@@ -3501,8 +3535,9 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>77</v>
       </c>
@@ -3521,8 +3556,9 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>78</v>
       </c>
@@ -3541,8 +3577,9 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>79</v>
       </c>
@@ -3561,8 +3598,9 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>80</v>
       </c>
@@ -3581,8 +3619,9 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>81</v>
       </c>
@@ -3601,8 +3640,9 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>82</v>
       </c>
@@ -3621,8 +3661,9 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>83</v>
       </c>
@@ -3641,8 +3682,9 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>84</v>
       </c>
@@ -3661,8 +3703,9 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>85</v>
       </c>
@@ -3681,8 +3724,9 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>86</v>
       </c>
@@ -3701,8 +3745,9 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>87</v>
       </c>
@@ -3721,8 +3766,9 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>88</v>
       </c>
@@ -3741,8 +3787,9 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>89</v>
       </c>
@@ -3761,8 +3808,9 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>90</v>
       </c>
@@ -3781,8 +3829,9 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" s="4"/>
+    </row>
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>91</v>
       </c>
@@ -3801,8 +3850,9 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>92</v>
       </c>
@@ -3821,8 +3871,9 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>93</v>
       </c>
@@ -3841,8 +3892,9 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>94</v>
       </c>
@@ -3855,11 +3907,11 @@
       <c r="D93" t="s">
         <v>143</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>95</v>
       </c>
@@ -3872,11 +3924,11 @@
       <c r="D94" t="s">
         <v>145</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>96</v>
       </c>
@@ -3889,11 +3941,11 @@
       <c r="D95" t="s">
         <v>147</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>97</v>
       </c>
@@ -3906,11 +3958,11 @@
       <c r="D96" t="s">
         <v>149</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>98</v>
       </c>
@@ -3923,11 +3975,11 @@
       <c r="D97" t="s">
         <v>151</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>99</v>
       </c>
@@ -3940,11 +3992,11 @@
       <c r="D98" t="s">
         <v>153</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>100</v>
       </c>
@@ -3957,11 +4009,11 @@
       <c r="D99" t="s">
         <v>155</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>101</v>
       </c>
@@ -3974,11 +4026,11 @@
       <c r="D100" t="s">
         <v>157</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>102</v>
       </c>
@@ -3991,11 +4043,11 @@
       <c r="D101" t="s">
         <v>159</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>103</v>
       </c>
@@ -4008,11 +4060,11 @@
       <c r="D102" t="s">
         <v>161</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>104</v>
       </c>
@@ -4025,11 +4077,11 @@
       <c r="D103" t="s">
         <v>163</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>105</v>
       </c>
@@ -4042,11 +4094,11 @@
       <c r="D104" t="s">
         <v>165</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>106</v>
       </c>
@@ -4059,11 +4111,11 @@
       <c r="D105" t="s">
         <v>167</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>107</v>
       </c>
@@ -4076,11 +4128,11 @@
       <c r="D106" t="s">
         <v>169</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>108</v>
       </c>
@@ -4093,11 +4145,11 @@
       <c r="D107" t="s">
         <v>171</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>109</v>
       </c>
@@ -4110,11 +4162,11 @@
       <c r="D108" t="s">
         <v>173</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>110</v>
       </c>
@@ -4127,11 +4179,11 @@
       <c r="D109" t="s">
         <v>175</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>111</v>
       </c>
@@ -4144,11 +4196,11 @@
       <c r="D110" t="s">
         <v>177</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>112</v>
       </c>
@@ -4161,11 +4213,11 @@
       <c r="D111" t="s">
         <v>179</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>113</v>
       </c>
@@ -4178,11 +4230,11 @@
       <c r="D112" t="s">
         <v>181</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>114</v>
       </c>
@@ -4195,11 +4247,11 @@
       <c r="D113" t="s">
         <v>183</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>115</v>
       </c>
@@ -4212,11 +4264,11 @@
       <c r="D114" t="s">
         <v>185</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>116</v>
       </c>
@@ -4229,11 +4281,11 @@
       <c r="D115" t="s">
         <v>187</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>117</v>
       </c>
@@ -4246,11 +4298,11 @@
       <c r="D116" t="s">
         <v>189</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>118</v>
       </c>
@@ -4263,11 +4315,11 @@
       <c r="D117" t="s">
         <v>191</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>119</v>
       </c>
@@ -4280,11 +4332,11 @@
       <c r="D118" t="s">
         <v>193</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>120</v>
       </c>
@@ -4297,11 +4349,11 @@
       <c r="D119" t="s">
         <v>195</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>121</v>
       </c>
@@ -4314,11 +4366,11 @@
       <c r="D120" t="s">
         <v>197</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>122</v>
       </c>
@@ -4331,11 +4383,11 @@
       <c r="D121" t="s">
         <v>199</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>123</v>
       </c>
@@ -4348,11 +4400,11 @@
       <c r="D122" t="s">
         <v>201</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>124</v>
       </c>
@@ -4365,11 +4417,11 @@
       <c r="D123" t="s">
         <v>203</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
         <v>4</v>
@@ -4381,7 +4433,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>125</v>
       </c>
@@ -4397,14 +4449,14 @@
       <c r="E125" t="s">
         <v>206</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>390</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>126</v>
       </c>
@@ -4421,7 +4473,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>127</v>
       </c>
@@ -4435,7 +4487,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>128</v>
       </c>
@@ -4452,7 +4504,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>129</v>
       </c>
@@ -4469,7 +4521,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>130</v>
       </c>
@@ -4483,7 +4535,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>131</v>
       </c>
@@ -4500,7 +4552,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>132</v>
       </c>
@@ -4516,14 +4568,14 @@
       <c r="E132" t="s">
         <v>42</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>389</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>133</v>
       </c>
@@ -4536,14 +4588,14 @@
       <c r="D133" t="s">
         <v>223</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>389</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>134</v>
       </c>
@@ -4557,7 +4609,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>135</v>
       </c>
@@ -4571,7 +4623,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>136</v>
       </c>
@@ -4585,7 +4637,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>137</v>
       </c>
@@ -4599,7 +4651,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>138</v>
       </c>
@@ -4613,7 +4665,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>139</v>
       </c>
@@ -4627,7 +4679,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>140</v>
       </c>
@@ -4644,7 +4696,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>141</v>
       </c>
@@ -4658,7 +4710,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>142</v>
       </c>
@@ -4675,7 +4727,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>143</v>
       </c>
@@ -4692,7 +4744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>144</v>
       </c>
@@ -4706,7 +4758,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>145</v>
       </c>
@@ -4720,7 +4772,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>146</v>
       </c>
@@ -4734,7 +4786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>147</v>
       </c>
@@ -4751,7 +4803,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>148</v>
       </c>
@@ -4765,7 +4817,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>149</v>
       </c>
@@ -4779,7 +4831,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>150</v>
       </c>
@@ -4793,7 +4845,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>151</v>
       </c>
@@ -4807,7 +4859,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>152</v>
       </c>
@@ -4821,7 +4873,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>153</v>
       </c>
@@ -4838,7 +4890,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>154</v>
       </c>
@@ -4855,7 +4907,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>155</v>
       </c>
@@ -4872,7 +4924,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>156</v>
       </c>
@@ -4886,7 +4938,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>157</v>
       </c>
@@ -4900,7 +4952,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>158</v>
       </c>
@@ -4914,7 +4966,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>159</v>
       </c>
@@ -4928,7 +4980,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>160</v>
       </c>
@@ -4942,7 +4994,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>161</v>
       </c>
@@ -4956,7 +5008,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>162</v>
       </c>
@@ -4970,7 +5022,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>163</v>
       </c>
@@ -4984,7 +5036,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>164</v>
       </c>
@@ -4998,7 +5050,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>165</v>
       </c>
@@ -5012,7 +5064,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>166</v>
       </c>
@@ -5026,7 +5078,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>167</v>
       </c>
@@ -5040,7 +5092,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>168</v>
       </c>
@@ -5054,7 +5106,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>169</v>
       </c>
@@ -5068,7 +5120,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>170</v>
       </c>
@@ -5082,7 +5134,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>171</v>
       </c>
@@ -5096,7 +5148,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>172</v>
       </c>
@@ -5110,7 +5162,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>173</v>
       </c>
@@ -5124,7 +5176,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>174</v>
       </c>
@@ -5138,7 +5190,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>175</v>
       </c>
@@ -5152,7 +5204,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>176</v>
       </c>
@@ -5169,7 +5221,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>177</v>
       </c>
@@ -5186,7 +5238,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>178</v>
       </c>
@@ -5200,7 +5252,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>179</v>
       </c>
@@ -5214,7 +5266,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>180</v>
       </c>
@@ -5228,7 +5280,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>181</v>
       </c>
@@ -5242,7 +5294,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>182</v>
       </c>
@@ -5256,7 +5308,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>183</v>
       </c>
@@ -5270,7 +5322,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>184</v>
       </c>
@@ -5284,7 +5336,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>185</v>
       </c>
@@ -5301,7 +5353,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>186</v>
       </c>
@@ -5315,7 +5367,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>187</v>
       </c>
@@ -5329,7 +5381,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>188</v>
       </c>
@@ -5343,7 +5395,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>189</v>
       </c>
@@ -5360,7 +5412,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>190</v>
       </c>
@@ -5377,7 +5429,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>191</v>
       </c>
@@ -5394,7 +5446,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>192</v>
       </c>
@@ -5408,7 +5460,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>193</v>
       </c>
@@ -5422,7 +5474,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>194</v>
       </c>
@@ -5439,7 +5491,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>195</v>
       </c>
@@ -5453,7 +5505,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>196</v>
       </c>
@@ -5467,7 +5519,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>197</v>
       </c>
@@ -5481,7 +5533,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>198</v>
       </c>
@@ -5495,7 +5547,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>199</v>
       </c>
@@ -5509,7 +5561,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>200</v>
       </c>
@@ -5523,7 +5575,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>201</v>
       </c>
@@ -5537,7 +5589,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>202</v>
       </c>
@@ -5551,7 +5603,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>203</v>
       </c>
@@ -5565,7 +5617,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>204</v>
       </c>
@@ -5579,7 +5631,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>205</v>
       </c>
@@ -5593,7 +5645,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>206</v>
       </c>
@@ -5610,7 +5662,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>207</v>
       </c>
@@ -5624,7 +5676,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>208</v>
       </c>
@@ -5641,7 +5693,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>209</v>
       </c>
@@ -5658,7 +5710,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>210</v>
       </c>
@@ -5675,7 +5727,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>211</v>
       </c>
@@ -5692,7 +5744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>212</v>
       </c>
@@ -5709,7 +5761,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>213</v>
       </c>
@@ -5723,7 +5775,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>214</v>
       </c>
@@ -5740,7 +5792,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>215</v>
       </c>
@@ -5757,7 +5809,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>216</v>
       </c>
@@ -5771,7 +5823,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>217</v>
       </c>
@@ -5785,7 +5837,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>218</v>
       </c>
@@ -5802,7 +5854,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>219</v>
       </c>
@@ -5819,7 +5871,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>220</v>
       </c>
@@ -5833,7 +5885,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>221</v>
       </c>
@@ -5848,6 +5900,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I221" xr:uid="{04481C2A-2C6F-C647-922A-56B9C68B1927}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Home Credit Group/data/HomeCredit_columns_description_Ray.xlsx
+++ b/Home Credit Group/data/HomeCredit_columns_description_Ray.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raylai/Desktop/RLWH/Kaggle/Home Credit Group/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Github/Kaggle/Home Credit Group/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C003E9BD-5D53-2746-A64C-EB564AA96F25}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AF375E-35B1-4447-AB88-8C3CE137F1F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28160" yWindow="440" windowWidth="24140" windowHeight="16680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomeCredit_columns_description_" sheetId="1" r:id="rId1"/>
+    <sheet name="Model Summary" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HomeCredit_columns_description_!$A$1:$I$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HomeCredit_columns_description_!$A$1:$H$221</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="397">
   <si>
     <t>Table</t>
   </si>
@@ -1198,17 +1199,29 @@
     <t>Count</t>
   </si>
   <si>
-    <t>dtype</t>
-  </si>
-  <si>
-    <t>Categorical</t>
+    <t>max_depth</t>
+  </si>
+  <si>
+    <t>eval-auc</t>
+  </si>
+  <si>
+    <t>min_child_weight</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>eval-acc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2065,23 +2078,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I221"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="69.83203125" customWidth="1"/>
     <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2095,19 +2107,16 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="G1" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2120,11 +2129,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" hidden="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2137,11 +2146,11 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>5</v>
       </c>
@@ -2154,14 +2163,11 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>392</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>6</v>
       </c>
@@ -2174,11 +2180,11 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" hidden="1">
       <c r="A6">
         <v>7</v>
       </c>
@@ -2191,11 +2197,11 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7">
         <v>8</v>
       </c>
@@ -2208,11 +2214,11 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>9</v>
       </c>
@@ -2225,11 +2231,11 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9">
         <v>10</v>
       </c>
@@ -2242,14 +2248,14 @@
       <c r="D9" t="s">
         <v>20</v>
       </c>
+      <c r="F9" t="s">
+        <v>383</v>
+      </c>
       <c r="G9" t="s">
-        <v>383</v>
-      </c>
-      <c r="H9" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1">
       <c r="A10">
         <v>11</v>
       </c>
@@ -2262,14 +2268,14 @@
       <c r="D10" t="s">
         <v>22</v>
       </c>
+      <c r="F10" t="s">
+        <v>383</v>
+      </c>
       <c r="G10" t="s">
-        <v>383</v>
-      </c>
-      <c r="H10" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" hidden="1">
       <c r="A11">
         <v>12</v>
       </c>
@@ -2282,14 +2288,14 @@
       <c r="D11" t="s">
         <v>24</v>
       </c>
+      <c r="F11" t="s">
+        <v>383</v>
+      </c>
       <c r="G11" t="s">
-        <v>383</v>
-      </c>
-      <c r="H11" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" hidden="1">
       <c r="A12">
         <v>13</v>
       </c>
@@ -2302,14 +2308,14 @@
       <c r="D12" t="s">
         <v>26</v>
       </c>
+      <c r="F12" t="s">
+        <v>383</v>
+      </c>
       <c r="G12" t="s">
-        <v>383</v>
-      </c>
-      <c r="H12" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" hidden="1">
       <c r="A13">
         <v>14</v>
       </c>
@@ -2322,14 +2328,14 @@
       <c r="D13" t="s">
         <v>28</v>
       </c>
+      <c r="G13" t="s">
+        <v>380</v>
+      </c>
       <c r="H13" t="s">
-        <v>380</v>
-      </c>
-      <c r="I13" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>15</v>
       </c>
@@ -2342,11 +2348,11 @@
       <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>16</v>
       </c>
@@ -2359,11 +2365,11 @@
       <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1">
       <c r="A16">
         <v>17</v>
       </c>
@@ -2376,14 +2382,14 @@
       <c r="D16" t="s">
         <v>34</v>
       </c>
+      <c r="G16" t="s">
+        <v>380</v>
+      </c>
       <c r="H16" t="s">
-        <v>380</v>
-      </c>
-      <c r="I16" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>18</v>
       </c>
@@ -2396,11 +2402,11 @@
       <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G17" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" hidden="1">
       <c r="A18">
         <v>19</v>
       </c>
@@ -2416,14 +2422,14 @@
       <c r="E18" t="s">
         <v>39</v>
       </c>
+      <c r="G18" t="s">
+        <v>380</v>
+      </c>
       <c r="H18" t="s">
-        <v>380</v>
-      </c>
-      <c r="I18" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" hidden="1">
       <c r="A19">
         <v>20</v>
       </c>
@@ -2439,11 +2445,11 @@
       <c r="E19" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>21</v>
       </c>
@@ -2459,14 +2465,14 @@
       <c r="E20" t="s">
         <v>42</v>
       </c>
+      <c r="F20" t="s">
+        <v>386</v>
+      </c>
       <c r="G20" t="s">
-        <v>386</v>
-      </c>
-      <c r="H20" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -2482,11 +2488,11 @@
       <c r="E21" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -2502,11 +2508,11 @@
       <c r="E22" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>24</v>
       </c>
@@ -2519,11 +2525,11 @@
       <c r="D23" t="s">
         <v>50</v>
       </c>
-      <c r="H23" t="s">
+      <c r="G23" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>25</v>
       </c>
@@ -2536,11 +2542,11 @@
       <c r="D24" t="s">
         <v>52</v>
       </c>
-      <c r="H24" t="s">
+      <c r="G24" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>26</v>
       </c>
@@ -2553,11 +2559,11 @@
       <c r="D25" t="s">
         <v>54</v>
       </c>
-      <c r="H25" t="s">
+      <c r="G25" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>27</v>
       </c>
@@ -2570,11 +2576,11 @@
       <c r="D26" t="s">
         <v>56</v>
       </c>
-      <c r="H26" t="s">
+      <c r="G26" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" hidden="1">
       <c r="A27">
         <v>28</v>
       </c>
@@ -2587,11 +2593,11 @@
       <c r="D27" t="s">
         <v>58</v>
       </c>
-      <c r="H27" t="s">
+      <c r="G27" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1">
       <c r="A28">
         <v>29</v>
       </c>
@@ -2604,11 +2610,11 @@
       <c r="D28" t="s">
         <v>56</v>
       </c>
-      <c r="H28" t="s">
+      <c r="G28" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" hidden="1">
       <c r="A29">
         <v>30</v>
       </c>
@@ -2621,11 +2627,11 @@
       <c r="D29" t="s">
         <v>61</v>
       </c>
-      <c r="H29" t="s">
+      <c r="G29" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>31</v>
       </c>
@@ -2638,11 +2644,11 @@
       <c r="D30" t="s">
         <v>63</v>
       </c>
-      <c r="H30" t="s">
+      <c r="G30" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>32</v>
       </c>
@@ -2655,11 +2661,11 @@
       <c r="D31" t="s">
         <v>65</v>
       </c>
-      <c r="H31" t="s">
+      <c r="G31" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>33</v>
       </c>
@@ -2672,14 +2678,14 @@
       <c r="D32" t="s">
         <v>67</v>
       </c>
+      <c r="F32" t="s">
+        <v>387</v>
+      </c>
       <c r="G32" t="s">
-        <v>387</v>
-      </c>
-      <c r="H32" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33">
         <v>34</v>
       </c>
@@ -2692,14 +2698,14 @@
       <c r="D33" t="s">
         <v>69</v>
       </c>
+      <c r="F33" t="s">
+        <v>388</v>
+      </c>
       <c r="G33" t="s">
-        <v>388</v>
-      </c>
-      <c r="H33" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" hidden="1">
       <c r="A34">
         <v>35</v>
       </c>
@@ -2712,11 +2718,11 @@
       <c r="D34" t="s">
         <v>71</v>
       </c>
-      <c r="H34" t="s">
+      <c r="G34" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35">
         <v>36</v>
       </c>
@@ -2732,11 +2738,11 @@
       <c r="E35" t="s">
         <v>74</v>
       </c>
-      <c r="H35" t="s">
+      <c r="G35" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36">
         <v>37</v>
       </c>
@@ -2749,11 +2755,11 @@
       <c r="D36" t="s">
         <v>76</v>
       </c>
-      <c r="H36" t="s">
+      <c r="G36" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37">
         <v>38</v>
       </c>
@@ -2766,11 +2772,11 @@
       <c r="D37" t="s">
         <v>78</v>
       </c>
-      <c r="H37" t="s">
+      <c r="G37" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38">
         <v>39</v>
       </c>
@@ -2783,11 +2789,11 @@
       <c r="D38" t="s">
         <v>80</v>
       </c>
-      <c r="H38" t="s">
+      <c r="G38" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" hidden="1">
       <c r="A39">
         <v>40</v>
       </c>
@@ -2800,11 +2806,11 @@
       <c r="D39" t="s">
         <v>82</v>
       </c>
-      <c r="H39" t="s">
+      <c r="G39" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" hidden="1">
       <c r="A40">
         <v>41</v>
       </c>
@@ -2817,11 +2823,11 @@
       <c r="D40" t="s">
         <v>84</v>
       </c>
-      <c r="H40" t="s">
+      <c r="G40" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41">
         <v>42</v>
       </c>
@@ -2834,11 +2840,11 @@
       <c r="D41" t="s">
         <v>86</v>
       </c>
-      <c r="H41" t="s">
+      <c r="G41" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>43</v>
       </c>
@@ -2851,11 +2857,11 @@
       <c r="D42" t="s">
         <v>88</v>
       </c>
-      <c r="H42" t="s">
+      <c r="G42" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>44</v>
       </c>
@@ -2871,11 +2877,11 @@
       <c r="E43" t="s">
         <v>91</v>
       </c>
-      <c r="H43" t="s">
+      <c r="G43" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>45</v>
       </c>
@@ -2891,11 +2897,11 @@
       <c r="E44" t="s">
         <v>91</v>
       </c>
-      <c r="H44" t="s">
+      <c r="G44" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>46</v>
       </c>
@@ -2911,11 +2917,11 @@
       <c r="E45" t="s">
         <v>91</v>
       </c>
-      <c r="H45" t="s">
+      <c r="G45" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>47</v>
       </c>
@@ -2931,11 +2937,11 @@
       <c r="E46" t="s">
         <v>91</v>
       </c>
-      <c r="H46" t="s">
+      <c r="G46" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" hidden="1">
       <c r="A47">
         <v>48</v>
       </c>
@@ -2951,11 +2957,11 @@
       <c r="E47" t="s">
         <v>91</v>
       </c>
-      <c r="H47" t="s">
+      <c r="G47" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1">
       <c r="A48">
         <v>49</v>
       </c>
@@ -2971,11 +2977,11 @@
       <c r="E48" t="s">
         <v>91</v>
       </c>
-      <c r="H48" t="s">
+      <c r="G48" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" hidden="1">
       <c r="A49">
         <v>50</v>
       </c>
@@ -2991,14 +2997,14 @@
       <c r="E49" t="s">
         <v>91</v>
       </c>
+      <c r="G49" t="s">
+        <v>380</v>
+      </c>
       <c r="H49" t="s">
-        <v>380</v>
-      </c>
-      <c r="I49" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" hidden="1">
       <c r="A50">
         <v>51</v>
       </c>
@@ -3014,14 +3020,14 @@
       <c r="E50" t="s">
         <v>91</v>
       </c>
+      <c r="G50" t="s">
+        <v>380</v>
+      </c>
       <c r="H50" t="s">
-        <v>380</v>
-      </c>
-      <c r="I50" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" hidden="1">
       <c r="A51">
         <v>52</v>
       </c>
@@ -3037,11 +3043,11 @@
       <c r="E51" t="s">
         <v>91</v>
       </c>
-      <c r="H51" t="s">
+      <c r="G51" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" hidden="1">
       <c r="A52">
         <v>53</v>
       </c>
@@ -3057,11 +3063,11 @@
       <c r="E52" t="s">
         <v>91</v>
       </c>
-      <c r="H52" t="s">
+      <c r="G52" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" hidden="1">
       <c r="A53">
         <v>54</v>
       </c>
@@ -3077,11 +3083,11 @@
       <c r="E53" t="s">
         <v>91</v>
       </c>
-      <c r="H53" t="s">
+      <c r="G53" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" hidden="1">
       <c r="A54">
         <v>55</v>
       </c>
@@ -3097,11 +3103,11 @@
       <c r="E54" t="s">
         <v>91</v>
       </c>
-      <c r="H54" t="s">
+      <c r="G54" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" hidden="1">
       <c r="A55">
         <v>56</v>
       </c>
@@ -3117,11 +3123,11 @@
       <c r="E55" t="s">
         <v>91</v>
       </c>
-      <c r="H55" t="s">
+      <c r="G55" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" hidden="1">
       <c r="A56">
         <v>57</v>
       </c>
@@ -3137,11 +3143,11 @@
       <c r="E56" t="s">
         <v>91</v>
       </c>
-      <c r="H56" t="s">
+      <c r="G56" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" hidden="1">
       <c r="A57">
         <v>58</v>
       </c>
@@ -3157,11 +3163,11 @@
       <c r="E57" t="s">
         <v>91</v>
       </c>
-      <c r="H57" t="s">
+      <c r="G57" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" hidden="1">
       <c r="A58">
         <v>59</v>
       </c>
@@ -3177,11 +3183,11 @@
       <c r="E58" t="s">
         <v>91</v>
       </c>
-      <c r="H58" t="s">
+      <c r="G58" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" hidden="1">
       <c r="A59">
         <v>60</v>
       </c>
@@ -3197,11 +3203,11 @@
       <c r="E59" t="s">
         <v>91</v>
       </c>
-      <c r="H59" t="s">
+      <c r="G59" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" hidden="1">
       <c r="A60" s="4">
         <v>61</v>
       </c>
@@ -3220,9 +3226,8 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:8" hidden="1">
       <c r="A61" s="4">
         <v>62</v>
       </c>
@@ -3241,9 +3246,8 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-    </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:8" hidden="1">
       <c r="A62" s="4">
         <v>63</v>
       </c>
@@ -3262,9 +3266,8 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:8" hidden="1">
       <c r="A63" s="4">
         <v>64</v>
       </c>
@@ -3283,9 +3286,8 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-    </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:8" hidden="1">
       <c r="A64" s="4">
         <v>65</v>
       </c>
@@ -3304,9 +3306,8 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-    </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:8" hidden="1">
       <c r="A65" s="4">
         <v>66</v>
       </c>
@@ -3325,9 +3326,8 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-    </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:8" hidden="1">
       <c r="A66" s="4">
         <v>67</v>
       </c>
@@ -3346,9 +3346,8 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-    </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:8" hidden="1">
       <c r="A67" s="4">
         <v>68</v>
       </c>
@@ -3367,9 +3366,8 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-    </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:8" hidden="1">
       <c r="A68" s="4">
         <v>69</v>
       </c>
@@ -3388,9 +3386,8 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-    </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:8" hidden="1">
       <c r="A69" s="4">
         <v>70</v>
       </c>
@@ -3409,9 +3406,8 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-    </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:8" hidden="1">
       <c r="A70" s="4">
         <v>71</v>
       </c>
@@ -3430,9 +3426,8 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-    </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:8" hidden="1">
       <c r="A71" s="4">
         <v>72</v>
       </c>
@@ -3451,9 +3446,8 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:8" hidden="1">
       <c r="A72" s="4">
         <v>73</v>
       </c>
@@ -3472,9 +3466,8 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-    </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:8" hidden="1">
       <c r="A73" s="4">
         <v>74</v>
       </c>
@@ -3493,9 +3486,8 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:8" hidden="1">
       <c r="A74" s="4">
         <v>75</v>
       </c>
@@ -3514,9 +3506,8 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-    </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:8" hidden="1">
       <c r="A75" s="4">
         <v>76</v>
       </c>
@@ -3535,9 +3526,8 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-    </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:8" hidden="1">
       <c r="A76" s="4">
         <v>77</v>
       </c>
@@ -3556,9 +3546,8 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-    </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:8" hidden="1">
       <c r="A77" s="4">
         <v>78</v>
       </c>
@@ -3577,9 +3566,8 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-    </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:8" hidden="1">
       <c r="A78" s="4">
         <v>79</v>
       </c>
@@ -3598,9 +3586,8 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-    </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:8" hidden="1">
       <c r="A79" s="4">
         <v>80</v>
       </c>
@@ -3619,9 +3606,8 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-    </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:8" hidden="1">
       <c r="A80" s="4">
         <v>81</v>
       </c>
@@ -3640,9 +3626,8 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-    </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:8" hidden="1">
       <c r="A81" s="4">
         <v>82</v>
       </c>
@@ -3661,9 +3646,8 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-    </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:8" hidden="1">
       <c r="A82" s="4">
         <v>83</v>
       </c>
@@ -3682,9 +3666,8 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-    </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:8" hidden="1">
       <c r="A83" s="4">
         <v>84</v>
       </c>
@@ -3703,9 +3686,8 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-    </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:8" hidden="1">
       <c r="A84" s="4">
         <v>85</v>
       </c>
@@ -3724,9 +3706,8 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-    </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:8" hidden="1">
       <c r="A85" s="4">
         <v>86</v>
       </c>
@@ -3745,9 +3726,8 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-    </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:8" hidden="1">
       <c r="A86" s="4">
         <v>87</v>
       </c>
@@ -3766,9 +3746,8 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-    </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:8" hidden="1">
       <c r="A87" s="4">
         <v>88</v>
       </c>
@@ -3787,9 +3766,8 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-    </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:8" hidden="1">
       <c r="A88" s="4">
         <v>89</v>
       </c>
@@ -3808,9 +3786,8 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-    </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:8" hidden="1">
       <c r="A89" s="4">
         <v>90</v>
       </c>
@@ -3829,9 +3806,8 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-    </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:8" hidden="1">
       <c r="A90" s="4">
         <v>91</v>
       </c>
@@ -3850,9 +3826,8 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-    </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:8" hidden="1">
       <c r="A91" s="4">
         <v>92</v>
       </c>
@@ -3871,9 +3846,8 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-    </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:8" hidden="1">
       <c r="A92" s="4">
         <v>93</v>
       </c>
@@ -3892,9 +3866,8 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-    </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:8" hidden="1">
       <c r="A93">
         <v>94</v>
       </c>
@@ -3907,11 +3880,11 @@
       <c r="D93" t="s">
         <v>143</v>
       </c>
-      <c r="H93" t="s">
+      <c r="G93" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" hidden="1">
       <c r="A94">
         <v>95</v>
       </c>
@@ -3924,11 +3897,11 @@
       <c r="D94" t="s">
         <v>145</v>
       </c>
-      <c r="H94" t="s">
+      <c r="G94" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" hidden="1">
       <c r="A95">
         <v>96</v>
       </c>
@@ -3941,11 +3914,11 @@
       <c r="D95" t="s">
         <v>147</v>
       </c>
-      <c r="H95" t="s">
+      <c r="G95" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" hidden="1">
       <c r="A96">
         <v>97</v>
       </c>
@@ -3958,11 +3931,11 @@
       <c r="D96" t="s">
         <v>149</v>
       </c>
-      <c r="H96" t="s">
+      <c r="G96" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>98</v>
       </c>
@@ -3975,11 +3948,11 @@
       <c r="D97" t="s">
         <v>151</v>
       </c>
-      <c r="H97" t="s">
+      <c r="G97" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>99</v>
       </c>
@@ -3992,11 +3965,11 @@
       <c r="D98" t="s">
         <v>153</v>
       </c>
-      <c r="H98" t="s">
+      <c r="G98" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" hidden="1">
       <c r="A99">
         <v>100</v>
       </c>
@@ -4009,11 +3982,11 @@
       <c r="D99" t="s">
         <v>155</v>
       </c>
-      <c r="H99" t="s">
+      <c r="G99" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" hidden="1">
       <c r="A100">
         <v>101</v>
       </c>
@@ -4026,11 +3999,11 @@
       <c r="D100" t="s">
         <v>157</v>
       </c>
-      <c r="H100" t="s">
+      <c r="G100" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" hidden="1">
       <c r="A101">
         <v>102</v>
       </c>
@@ -4043,11 +4016,11 @@
       <c r="D101" t="s">
         <v>159</v>
       </c>
-      <c r="H101" t="s">
+      <c r="G101" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>103</v>
       </c>
@@ -4060,11 +4033,11 @@
       <c r="D102" t="s">
         <v>161</v>
       </c>
-      <c r="H102" t="s">
+      <c r="G102" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>104</v>
       </c>
@@ -4077,11 +4050,11 @@
       <c r="D103" t="s">
         <v>163</v>
       </c>
-      <c r="H103" t="s">
+      <c r="G103" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" hidden="1">
       <c r="A104">
         <v>105</v>
       </c>
@@ -4094,11 +4067,11 @@
       <c r="D104" t="s">
         <v>165</v>
       </c>
-      <c r="H104" t="s">
+      <c r="G104" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" hidden="1">
       <c r="A105">
         <v>106</v>
       </c>
@@ -4111,11 +4084,11 @@
       <c r="D105" t="s">
         <v>167</v>
       </c>
-      <c r="H105" t="s">
+      <c r="G105" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" hidden="1">
       <c r="A106">
         <v>107</v>
       </c>
@@ -4128,11 +4101,11 @@
       <c r="D106" t="s">
         <v>169</v>
       </c>
-      <c r="H106" t="s">
+      <c r="G106" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" hidden="1">
       <c r="A107">
         <v>108</v>
       </c>
@@ -4145,11 +4118,11 @@
       <c r="D107" t="s">
         <v>171</v>
       </c>
-      <c r="H107" t="s">
+      <c r="G107" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" hidden="1">
       <c r="A108">
         <v>109</v>
       </c>
@@ -4162,11 +4135,11 @@
       <c r="D108" t="s">
         <v>173</v>
       </c>
-      <c r="H108" t="s">
+      <c r="G108" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" hidden="1">
       <c r="A109">
         <v>110</v>
       </c>
@@ -4179,11 +4152,11 @@
       <c r="D109" t="s">
         <v>175</v>
       </c>
-      <c r="H109" t="s">
+      <c r="G109" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>111</v>
       </c>
@@ -4196,11 +4169,11 @@
       <c r="D110" t="s">
         <v>177</v>
       </c>
-      <c r="H110" t="s">
+      <c r="G110" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>112</v>
       </c>
@@ -4213,11 +4186,11 @@
       <c r="D111" t="s">
         <v>179</v>
       </c>
-      <c r="H111" t="s">
+      <c r="G111" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" hidden="1">
       <c r="A112">
         <v>113</v>
       </c>
@@ -4230,11 +4203,11 @@
       <c r="D112" t="s">
         <v>181</v>
       </c>
-      <c r="H112" t="s">
+      <c r="G112" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" hidden="1">
       <c r="A113">
         <v>114</v>
       </c>
@@ -4247,11 +4220,11 @@
       <c r="D113" t="s">
         <v>183</v>
       </c>
-      <c r="H113" t="s">
+      <c r="G113" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>115</v>
       </c>
@@ -4264,11 +4237,11 @@
       <c r="D114" t="s">
         <v>185</v>
       </c>
-      <c r="H114" t="s">
+      <c r="G114" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" hidden="1">
       <c r="A115">
         <v>116</v>
       </c>
@@ -4281,11 +4254,11 @@
       <c r="D115" t="s">
         <v>187</v>
       </c>
-      <c r="H115" t="s">
+      <c r="G115" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" hidden="1">
       <c r="A116">
         <v>117</v>
       </c>
@@ -4298,11 +4271,11 @@
       <c r="D116" t="s">
         <v>189</v>
       </c>
-      <c r="H116" t="s">
+      <c r="G116" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>118</v>
       </c>
@@ -4315,11 +4288,11 @@
       <c r="D117" t="s">
         <v>191</v>
       </c>
-      <c r="H117" t="s">
+      <c r="G117" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" hidden="1">
       <c r="A118">
         <v>119</v>
       </c>
@@ -4332,11 +4305,11 @@
       <c r="D118" t="s">
         <v>193</v>
       </c>
-      <c r="H118" t="s">
+      <c r="G118" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" hidden="1">
       <c r="A119">
         <v>120</v>
       </c>
@@ -4349,11 +4322,11 @@
       <c r="D119" t="s">
         <v>195</v>
       </c>
-      <c r="H119" t="s">
+      <c r="G119" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" hidden="1">
       <c r="A120">
         <v>121</v>
       </c>
@@ -4366,11 +4339,11 @@
       <c r="D120" t="s">
         <v>197</v>
       </c>
-      <c r="H120" t="s">
+      <c r="G120" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" hidden="1">
       <c r="A121">
         <v>122</v>
       </c>
@@ -4383,11 +4356,11 @@
       <c r="D121" t="s">
         <v>199</v>
       </c>
-      <c r="H121" t="s">
+      <c r="G121" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" hidden="1">
       <c r="A122">
         <v>123</v>
       </c>
@@ -4400,11 +4373,11 @@
       <c r="D122" t="s">
         <v>201</v>
       </c>
-      <c r="H122" t="s">
+      <c r="G122" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>124</v>
       </c>
@@ -4417,11 +4390,11 @@
       <c r="D123" t="s">
         <v>203</v>
       </c>
-      <c r="H123" t="s">
+      <c r="G123" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" hidden="1">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
         <v>4</v>
@@ -4433,7 +4406,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" hidden="1">
       <c r="A125">
         <v>125</v>
       </c>
@@ -4449,14 +4422,14 @@
       <c r="E125" t="s">
         <v>206</v>
       </c>
+      <c r="F125" t="s">
+        <v>390</v>
+      </c>
       <c r="G125" t="s">
-        <v>390</v>
-      </c>
-      <c r="H125" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" hidden="1">
       <c r="A126">
         <v>126</v>
       </c>
@@ -4473,7 +4446,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" hidden="1">
       <c r="A127">
         <v>127</v>
       </c>
@@ -4487,7 +4460,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" hidden="1">
       <c r="A128">
         <v>128</v>
       </c>
@@ -4504,7 +4477,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" hidden="1">
       <c r="A129">
         <v>129</v>
       </c>
@@ -4521,7 +4494,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" hidden="1">
       <c r="A130">
         <v>130</v>
       </c>
@@ -4535,7 +4508,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" hidden="1">
       <c r="A131">
         <v>131</v>
       </c>
@@ -4552,7 +4525,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>132</v>
       </c>
@@ -4568,14 +4541,14 @@
       <c r="E132" t="s">
         <v>42</v>
       </c>
+      <c r="F132" t="s">
+        <v>389</v>
+      </c>
       <c r="G132" t="s">
-        <v>389</v>
-      </c>
-      <c r="H132" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>133</v>
       </c>
@@ -4588,14 +4561,14 @@
       <c r="D133" t="s">
         <v>223</v>
       </c>
+      <c r="F133" t="s">
+        <v>389</v>
+      </c>
       <c r="G133" t="s">
-        <v>389</v>
-      </c>
-      <c r="H133" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" hidden="1">
       <c r="A134">
         <v>134</v>
       </c>
@@ -4609,7 +4582,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" hidden="1">
       <c r="A135">
         <v>135</v>
       </c>
@@ -4623,7 +4596,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" hidden="1">
       <c r="A136">
         <v>136</v>
       </c>
@@ -4637,7 +4610,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" hidden="1">
       <c r="A137">
         <v>137</v>
       </c>
@@ -4651,7 +4624,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" hidden="1">
       <c r="A138">
         <v>138</v>
       </c>
@@ -4665,7 +4638,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" hidden="1">
       <c r="A139">
         <v>139</v>
       </c>
@@ -4679,7 +4652,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" hidden="1">
       <c r="A140">
         <v>140</v>
       </c>
@@ -4696,7 +4669,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" hidden="1">
       <c r="A141">
         <v>141</v>
       </c>
@@ -4710,7 +4683,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" hidden="1">
       <c r="A142">
         <v>142</v>
       </c>
@@ -4727,7 +4700,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" hidden="1">
       <c r="A143">
         <v>143</v>
       </c>
@@ -4744,7 +4717,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" hidden="1">
       <c r="A144">
         <v>144</v>
       </c>
@@ -4758,7 +4731,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" hidden="1">
       <c r="A145">
         <v>145</v>
       </c>
@@ -4772,7 +4745,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" hidden="1">
       <c r="A146">
         <v>146</v>
       </c>
@@ -4786,7 +4759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" hidden="1">
       <c r="A147">
         <v>147</v>
       </c>
@@ -4803,7 +4776,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" hidden="1">
       <c r="A148">
         <v>148</v>
       </c>
@@ -4817,7 +4790,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" hidden="1">
       <c r="A149">
         <v>149</v>
       </c>
@@ -4831,7 +4804,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" hidden="1">
       <c r="A150">
         <v>150</v>
       </c>
@@ -4845,7 +4818,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" hidden="1">
       <c r="A151">
         <v>151</v>
       </c>
@@ -4859,7 +4832,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" hidden="1">
       <c r="A152">
         <v>152</v>
       </c>
@@ -4873,7 +4846,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" hidden="1">
       <c r="A153">
         <v>153</v>
       </c>
@@ -4890,7 +4863,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" hidden="1">
       <c r="A154">
         <v>154</v>
       </c>
@@ -4907,7 +4880,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" hidden="1">
       <c r="A155">
         <v>155</v>
       </c>
@@ -4924,7 +4897,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" hidden="1">
       <c r="A156">
         <v>156</v>
       </c>
@@ -4938,7 +4911,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" hidden="1">
       <c r="A157">
         <v>157</v>
       </c>
@@ -4952,7 +4925,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" hidden="1">
       <c r="A158">
         <v>158</v>
       </c>
@@ -4966,7 +4939,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" hidden="1">
       <c r="A159">
         <v>159</v>
       </c>
@@ -4980,7 +4953,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" hidden="1">
       <c r="A160">
         <v>160</v>
       </c>
@@ -4994,7 +4967,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" hidden="1">
       <c r="A161">
         <v>161</v>
       </c>
@@ -5008,7 +4981,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" hidden="1">
       <c r="A162">
         <v>162</v>
       </c>
@@ -5022,7 +4995,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" hidden="1">
       <c r="A163">
         <v>163</v>
       </c>
@@ -5036,7 +5009,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" hidden="1">
       <c r="A164">
         <v>164</v>
       </c>
@@ -5050,7 +5023,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" hidden="1">
       <c r="A165">
         <v>165</v>
       </c>
@@ -5064,7 +5037,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" hidden="1">
       <c r="A166">
         <v>166</v>
       </c>
@@ -5078,7 +5051,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" hidden="1">
       <c r="A167">
         <v>167</v>
       </c>
@@ -5092,7 +5065,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" hidden="1">
       <c r="A168">
         <v>168</v>
       </c>
@@ -5106,7 +5079,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" hidden="1">
       <c r="A169">
         <v>169</v>
       </c>
@@ -5120,7 +5093,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" hidden="1">
       <c r="A170">
         <v>170</v>
       </c>
@@ -5134,7 +5107,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" hidden="1">
       <c r="A171">
         <v>171</v>
       </c>
@@ -5148,7 +5121,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" hidden="1">
       <c r="A172">
         <v>172</v>
       </c>
@@ -5162,7 +5135,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" hidden="1">
       <c r="A173">
         <v>173</v>
       </c>
@@ -5176,7 +5149,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" hidden="1">
       <c r="A174">
         <v>174</v>
       </c>
@@ -5190,7 +5163,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" hidden="1">
       <c r="A175">
         <v>175</v>
       </c>
@@ -5204,7 +5177,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" hidden="1">
       <c r="A176">
         <v>176</v>
       </c>
@@ -5221,7 +5194,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" hidden="1">
       <c r="A177">
         <v>177</v>
       </c>
@@ -5238,7 +5211,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" hidden="1">
       <c r="A178">
         <v>178</v>
       </c>
@@ -5252,7 +5225,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" hidden="1">
       <c r="A179">
         <v>179</v>
       </c>
@@ -5266,7 +5239,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" hidden="1">
       <c r="A180">
         <v>180</v>
       </c>
@@ -5280,7 +5253,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" hidden="1">
       <c r="A181">
         <v>181</v>
       </c>
@@ -5294,7 +5267,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" hidden="1">
       <c r="A182">
         <v>182</v>
       </c>
@@ -5308,7 +5281,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" hidden="1">
       <c r="A183">
         <v>183</v>
       </c>
@@ -5322,7 +5295,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" hidden="1">
       <c r="A184">
         <v>184</v>
       </c>
@@ -5336,7 +5309,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" hidden="1">
       <c r="A185">
         <v>185</v>
       </c>
@@ -5353,7 +5326,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" hidden="1">
       <c r="A186">
         <v>186</v>
       </c>
@@ -5367,7 +5340,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" hidden="1">
       <c r="A187">
         <v>187</v>
       </c>
@@ -5381,7 +5354,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" hidden="1">
       <c r="A188">
         <v>188</v>
       </c>
@@ -5395,7 +5368,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" hidden="1">
       <c r="A189">
         <v>189</v>
       </c>
@@ -5412,7 +5385,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" hidden="1">
       <c r="A190">
         <v>190</v>
       </c>
@@ -5429,7 +5402,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" hidden="1">
       <c r="A191">
         <v>191</v>
       </c>
@@ -5446,7 +5419,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" hidden="1">
       <c r="A192">
         <v>192</v>
       </c>
@@ -5460,7 +5433,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" hidden="1">
       <c r="A193">
         <v>193</v>
       </c>
@@ -5474,7 +5447,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" hidden="1">
       <c r="A194">
         <v>194</v>
       </c>
@@ -5491,7 +5464,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" hidden="1">
       <c r="A195">
         <v>195</v>
       </c>
@@ -5505,7 +5478,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" hidden="1">
       <c r="A196">
         <v>196</v>
       </c>
@@ -5519,7 +5492,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" hidden="1">
       <c r="A197">
         <v>197</v>
       </c>
@@ -5533,7 +5506,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" hidden="1">
       <c r="A198">
         <v>198</v>
       </c>
@@ -5547,7 +5520,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" hidden="1">
       <c r="A199">
         <v>199</v>
       </c>
@@ -5561,7 +5534,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" hidden="1">
       <c r="A200">
         <v>200</v>
       </c>
@@ -5575,7 +5548,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" hidden="1">
       <c r="A201">
         <v>201</v>
       </c>
@@ -5589,7 +5562,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" hidden="1">
       <c r="A202">
         <v>202</v>
       </c>
@@ -5603,7 +5576,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" hidden="1">
       <c r="A203">
         <v>203</v>
       </c>
@@ -5617,7 +5590,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" hidden="1">
       <c r="A204">
         <v>204</v>
       </c>
@@ -5631,7 +5604,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" hidden="1">
       <c r="A205">
         <v>205</v>
       </c>
@@ -5645,7 +5618,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" hidden="1">
       <c r="A206">
         <v>206</v>
       </c>
@@ -5662,7 +5635,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" hidden="1">
       <c r="A207">
         <v>207</v>
       </c>
@@ -5676,7 +5649,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" hidden="1">
       <c r="A208">
         <v>208</v>
       </c>
@@ -5693,7 +5666,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" hidden="1">
       <c r="A209">
         <v>209</v>
       </c>
@@ -5710,7 +5683,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" hidden="1">
       <c r="A210">
         <v>210</v>
       </c>
@@ -5727,7 +5700,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" hidden="1">
       <c r="A211">
         <v>211</v>
       </c>
@@ -5744,7 +5717,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" hidden="1">
       <c r="A212">
         <v>212</v>
       </c>
@@ -5761,7 +5734,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" hidden="1">
       <c r="A213">
         <v>213</v>
       </c>
@@ -5775,7 +5748,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" hidden="1">
       <c r="A214">
         <v>214</v>
       </c>
@@ -5792,7 +5765,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" hidden="1">
       <c r="A215">
         <v>215</v>
       </c>
@@ -5809,7 +5782,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" hidden="1">
       <c r="A216">
         <v>216</v>
       </c>
@@ -5823,7 +5796,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" hidden="1">
       <c r="A217">
         <v>217</v>
       </c>
@@ -5837,7 +5810,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" hidden="1">
       <c r="A218">
         <v>218</v>
       </c>
@@ -5854,7 +5827,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" hidden="1">
       <c r="A219">
         <v>219</v>
       </c>
@@ -5871,7 +5844,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" hidden="1">
       <c r="A220">
         <v>220</v>
       </c>
@@ -5885,7 +5858,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" hidden="1">
       <c r="A221">
         <v>221</v>
       </c>
@@ -5900,8 +5873,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I221" xr:uid="{04481C2A-2C6F-C647-922A-56B9C68B1927}">
-    <filterColumn colId="7">
+  <autoFilter ref="A1:H221" xr:uid="{744B3FD5-FCE0-1A4B-9CAE-4FA855AD149F}">
+    <filterColumn colId="6">
       <filters>
         <filter val="Yes"/>
       </filters>
@@ -5910,4 +5883,264 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF643AD-A9EE-3844-A6EF-66DEA59FC6E0}">
+  <dimension ref="B1:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12">
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12">
+      <c r="B2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2">
+        <v>64</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>32</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>64</v>
+      </c>
+      <c r="K2">
+        <v>256</v>
+      </c>
+      <c r="L2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <v>16</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+      <c r="D5">
+        <v>0.68</v>
+      </c>
+      <c r="E5">
+        <v>0.77</v>
+      </c>
+      <c r="F5">
+        <v>0.84</v>
+      </c>
+      <c r="G5">
+        <v>0.22</v>
+      </c>
+      <c r="H5">
+        <v>0.39</v>
+      </c>
+      <c r="I5">
+        <v>0.86</v>
+      </c>
+      <c r="J5">
+        <v>0.82</v>
+      </c>
+      <c r="K5">
+        <v>0.72</v>
+      </c>
+      <c r="L5">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C6">
+        <v>0.72823800000000005</v>
+      </c>
+      <c r="D6">
+        <v>0.73956299999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.73762099999999997</v>
+      </c>
+      <c r="F6">
+        <v>0.744093</v>
+      </c>
+      <c r="G6">
+        <v>0.70981499999999997</v>
+      </c>
+      <c r="H6">
+        <v>0.74346299999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.74083200000000005</v>
+      </c>
+      <c r="J6">
+        <v>0.73347700000000005</v>
+      </c>
+      <c r="K6">
+        <v>0.73246699999999998</v>
+      </c>
+      <c r="L6">
+        <v>0.700326</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C7">
+        <v>0.91925727999999995</v>
+      </c>
+      <c r="D7">
+        <v>0.91902965999999997</v>
+      </c>
+      <c r="E7">
+        <v>0.91870447</v>
+      </c>
+      <c r="F7">
+        <v>0.91899713999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.91685094</v>
+      </c>
+      <c r="H7">
+        <v>0.91919225000000004</v>
+      </c>
+      <c r="I7">
+        <v>0.9182167</v>
+      </c>
+      <c r="J7">
+        <v>0.91600546000000005</v>
+      </c>
+      <c r="K7">
+        <v>0.91502992000000005</v>
+      </c>
+      <c r="L7">
+        <v>0.90342091999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Home Credit Group/data/HomeCredit_columns_description_Ray.xlsx
+++ b/Home Credit Group/data/HomeCredit_columns_description_Ray.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Github/Kaggle/Home Credit Group/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AF375E-35B1-4447-AB88-8C3CE137F1F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC55EBDD-72DA-4845-ADEA-D0BD6DC0700A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28160" yWindow="440" windowWidth="24140" windowHeight="16680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28160" yWindow="440" windowWidth="24140" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomeCredit_columns_description_" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HomeCredit_columns_description_!$A$1:$H$221</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -2077,11 +2077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2116,7 +2115,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2133,7 +2132,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>7</v>
       </c>
@@ -2201,7 +2200,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>8</v>
       </c>
@@ -2235,7 +2234,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>10</v>
       </c>
@@ -2255,7 +2254,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>11</v>
       </c>
@@ -2275,7 +2274,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>12</v>
       </c>
@@ -2295,7 +2294,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>13</v>
       </c>
@@ -2315,7 +2314,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>14</v>
       </c>
@@ -2369,7 +2368,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>17</v>
       </c>
@@ -2406,7 +2405,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>19</v>
       </c>
@@ -2429,7 +2428,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>20</v>
       </c>
@@ -2580,7 +2579,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>28</v>
       </c>
@@ -2597,7 +2596,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>29</v>
       </c>
@@ -2614,7 +2613,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>30</v>
       </c>
@@ -2685,7 +2684,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>34</v>
       </c>
@@ -2705,7 +2704,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>35</v>
       </c>
@@ -2722,7 +2721,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>36</v>
       </c>
@@ -2742,7 +2741,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>37</v>
       </c>
@@ -2759,7 +2758,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>38</v>
       </c>
@@ -2776,7 +2775,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>39</v>
       </c>
@@ -2793,7 +2792,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>40</v>
       </c>
@@ -2810,7 +2809,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>41</v>
       </c>
@@ -2827,7 +2826,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>42</v>
       </c>
@@ -2941,7 +2940,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>48</v>
       </c>
@@ -2961,7 +2960,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>49</v>
       </c>
@@ -2981,7 +2980,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>50</v>
       </c>
@@ -3004,7 +3003,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>51</v>
       </c>
@@ -3027,7 +3026,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>52</v>
       </c>
@@ -3047,7 +3046,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1">
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>53</v>
       </c>
@@ -3067,7 +3066,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>54</v>
       </c>
@@ -3087,7 +3086,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>55</v>
       </c>
@@ -3107,7 +3106,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>56</v>
       </c>
@@ -3127,7 +3126,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>57</v>
       </c>
@@ -3147,7 +3146,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>58</v>
       </c>
@@ -3167,7 +3166,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>59</v>
       </c>
@@ -3187,7 +3186,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>60</v>
       </c>
@@ -3207,7 +3206,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1">
+    <row r="60" spans="1:8">
       <c r="A60" s="4">
         <v>61</v>
       </c>
@@ -3227,7 +3226,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" hidden="1">
+    <row r="61" spans="1:8">
       <c r="A61" s="4">
         <v>62</v>
       </c>
@@ -3247,7 +3246,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" hidden="1">
+    <row r="62" spans="1:8">
       <c r="A62" s="4">
         <v>63</v>
       </c>
@@ -3267,7 +3266,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" hidden="1">
+    <row r="63" spans="1:8">
       <c r="A63" s="4">
         <v>64</v>
       </c>
@@ -3287,7 +3286,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" hidden="1">
+    <row r="64" spans="1:8">
       <c r="A64" s="4">
         <v>65</v>
       </c>
@@ -3307,7 +3306,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" hidden="1">
+    <row r="65" spans="1:8">
       <c r="A65" s="4">
         <v>66</v>
       </c>
@@ -3327,7 +3326,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" hidden="1">
+    <row r="66" spans="1:8">
       <c r="A66" s="4">
         <v>67</v>
       </c>
@@ -3347,7 +3346,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" hidden="1">
+    <row r="67" spans="1:8">
       <c r="A67" s="4">
         <v>68</v>
       </c>
@@ -3367,7 +3366,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" hidden="1">
+    <row r="68" spans="1:8">
       <c r="A68" s="4">
         <v>69</v>
       </c>
@@ -3387,7 +3386,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" hidden="1">
+    <row r="69" spans="1:8">
       <c r="A69" s="4">
         <v>70</v>
       </c>
@@ -3407,7 +3406,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" hidden="1">
+    <row r="70" spans="1:8">
       <c r="A70" s="4">
         <v>71</v>
       </c>
@@ -3427,7 +3426,7 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8" hidden="1">
+    <row r="71" spans="1:8">
       <c r="A71" s="4">
         <v>72</v>
       </c>
@@ -3447,7 +3446,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8" hidden="1">
+    <row r="72" spans="1:8">
       <c r="A72" s="4">
         <v>73</v>
       </c>
@@ -3467,7 +3466,7 @@
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8" hidden="1">
+    <row r="73" spans="1:8">
       <c r="A73" s="4">
         <v>74</v>
       </c>
@@ -3487,7 +3486,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8" hidden="1">
+    <row r="74" spans="1:8">
       <c r="A74" s="4">
         <v>75</v>
       </c>
@@ -3507,7 +3506,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8" hidden="1">
+    <row r="75" spans="1:8">
       <c r="A75" s="4">
         <v>76</v>
       </c>
@@ -3527,7 +3526,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8" hidden="1">
+    <row r="76" spans="1:8">
       <c r="A76" s="4">
         <v>77</v>
       </c>
@@ -3547,7 +3546,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8" hidden="1">
+    <row r="77" spans="1:8">
       <c r="A77" s="4">
         <v>78</v>
       </c>
@@ -3567,7 +3566,7 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8" hidden="1">
+    <row r="78" spans="1:8">
       <c r="A78" s="4">
         <v>79</v>
       </c>
@@ -3587,7 +3586,7 @@
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8" hidden="1">
+    <row r="79" spans="1:8">
       <c r="A79" s="4">
         <v>80</v>
       </c>
@@ -3607,7 +3606,7 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8" hidden="1">
+    <row r="80" spans="1:8">
       <c r="A80" s="4">
         <v>81</v>
       </c>
@@ -3627,7 +3626,7 @@
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8" hidden="1">
+    <row r="81" spans="1:8">
       <c r="A81" s="4">
         <v>82</v>
       </c>
@@ -3647,7 +3646,7 @@
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8" hidden="1">
+    <row r="82" spans="1:8">
       <c r="A82" s="4">
         <v>83</v>
       </c>
@@ -3667,7 +3666,7 @@
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8" hidden="1">
+    <row r="83" spans="1:8">
       <c r="A83" s="4">
         <v>84</v>
       </c>
@@ -3687,7 +3686,7 @@
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8" hidden="1">
+    <row r="84" spans="1:8">
       <c r="A84" s="4">
         <v>85</v>
       </c>
@@ -3707,7 +3706,7 @@
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8" hidden="1">
+    <row r="85" spans="1:8">
       <c r="A85" s="4">
         <v>86</v>
       </c>
@@ -3727,7 +3726,7 @@
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:8" hidden="1">
+    <row r="86" spans="1:8">
       <c r="A86" s="4">
         <v>87</v>
       </c>
@@ -3747,7 +3746,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8" hidden="1">
+    <row r="87" spans="1:8">
       <c r="A87" s="4">
         <v>88</v>
       </c>
@@ -3767,7 +3766,7 @@
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:8" hidden="1">
+    <row r="88" spans="1:8">
       <c r="A88" s="4">
         <v>89</v>
       </c>
@@ -3787,7 +3786,7 @@
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8" hidden="1">
+    <row r="89" spans="1:8">
       <c r="A89" s="4">
         <v>90</v>
       </c>
@@ -3807,7 +3806,7 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="1:8" hidden="1">
+    <row r="90" spans="1:8">
       <c r="A90" s="4">
         <v>91</v>
       </c>
@@ -3827,7 +3826,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8" hidden="1">
+    <row r="91" spans="1:8">
       <c r="A91" s="4">
         <v>92</v>
       </c>
@@ -3847,7 +3846,7 @@
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8" hidden="1">
+    <row r="92" spans="1:8">
       <c r="A92" s="4">
         <v>93</v>
       </c>
@@ -3867,7 +3866,7 @@
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8" hidden="1">
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>94</v>
       </c>
@@ -3884,7 +3883,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1">
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>95</v>
       </c>
@@ -3901,7 +3900,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1">
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>96</v>
       </c>
@@ -3918,7 +3917,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1">
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>97</v>
       </c>
@@ -3969,7 +3968,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1">
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>100</v>
       </c>
@@ -3986,7 +3985,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1">
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>101</v>
       </c>
@@ -4003,7 +4002,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1">
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>102</v>
       </c>
@@ -4054,7 +4053,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1">
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>105</v>
       </c>
@@ -4071,7 +4070,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1">
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>106</v>
       </c>
@@ -4088,7 +4087,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1">
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>107</v>
       </c>
@@ -4105,7 +4104,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1">
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>108</v>
       </c>
@@ -4122,7 +4121,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1">
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>109</v>
       </c>
@@ -4139,7 +4138,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1">
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>110</v>
       </c>
@@ -4190,7 +4189,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1">
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>113</v>
       </c>
@@ -4207,7 +4206,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1">
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>114</v>
       </c>
@@ -4241,7 +4240,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1">
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>116</v>
       </c>
@@ -4258,7 +4257,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1">
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>117</v>
       </c>
@@ -4292,7 +4291,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1">
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>119</v>
       </c>
@@ -4309,7 +4308,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1">
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>120</v>
       </c>
@@ -4326,7 +4325,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1">
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>121</v>
       </c>
@@ -4343,7 +4342,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1">
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>122</v>
       </c>
@@ -4360,7 +4359,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1">
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>123</v>
       </c>
@@ -4394,7 +4393,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1">
+    <row r="124" spans="1:7">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
         <v>4</v>
@@ -4406,7 +4405,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1">
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>125</v>
       </c>
@@ -4429,7 +4428,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1">
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>126</v>
       </c>
@@ -4446,7 +4445,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1">
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>127</v>
       </c>
@@ -4460,7 +4459,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1">
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>128</v>
       </c>
@@ -4477,7 +4476,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1">
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>129</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1">
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>130</v>
       </c>
@@ -4508,7 +4507,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1">
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>131</v>
       </c>
@@ -4568,7 +4567,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1">
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>134</v>
       </c>
@@ -4582,7 +4581,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1">
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>135</v>
       </c>
@@ -4596,7 +4595,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1">
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>136</v>
       </c>
@@ -4610,7 +4609,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1">
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>137</v>
       </c>
@@ -4624,7 +4623,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1">
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>138</v>
       </c>
@@ -4638,7 +4637,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1">
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>139</v>
       </c>
@@ -4652,7 +4651,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1">
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>140</v>
       </c>
@@ -4669,7 +4668,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1">
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>141</v>
       </c>
@@ -4683,7 +4682,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1">
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>142</v>
       </c>
@@ -4700,7 +4699,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1">
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>143</v>
       </c>
@@ -4717,7 +4716,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1">
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>144</v>
       </c>
@@ -4731,7 +4730,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1">
+    <row r="145" spans="1:5">
       <c r="A145">
         <v>145</v>
       </c>
@@ -4745,7 +4744,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1">
+    <row r="146" spans="1:5">
       <c r="A146">
         <v>146</v>
       </c>
@@ -4759,7 +4758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1">
+    <row r="147" spans="1:5">
       <c r="A147">
         <v>147</v>
       </c>
@@ -4776,7 +4775,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1">
+    <row r="148" spans="1:5">
       <c r="A148">
         <v>148</v>
       </c>
@@ -4790,7 +4789,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1">
+    <row r="149" spans="1:5">
       <c r="A149">
         <v>149</v>
       </c>
@@ -4804,7 +4803,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1">
+    <row r="150" spans="1:5">
       <c r="A150">
         <v>150</v>
       </c>
@@ -4818,7 +4817,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1">
+    <row r="151" spans="1:5">
       <c r="A151">
         <v>151</v>
       </c>
@@ -4832,7 +4831,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1">
+    <row r="152" spans="1:5">
       <c r="A152">
         <v>152</v>
       </c>
@@ -4846,7 +4845,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1">
+    <row r="153" spans="1:5">
       <c r="A153">
         <v>153</v>
       </c>
@@ -4863,7 +4862,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1">
+    <row r="154" spans="1:5">
       <c r="A154">
         <v>154</v>
       </c>
@@ -4880,7 +4879,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1">
+    <row r="155" spans="1:5">
       <c r="A155">
         <v>155</v>
       </c>
@@ -4897,7 +4896,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1">
+    <row r="156" spans="1:5">
       <c r="A156">
         <v>156</v>
       </c>
@@ -4911,7 +4910,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1">
+    <row r="157" spans="1:5">
       <c r="A157">
         <v>157</v>
       </c>
@@ -4925,7 +4924,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1">
+    <row r="158" spans="1:5">
       <c r="A158">
         <v>158</v>
       </c>
@@ -4939,7 +4938,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1">
+    <row r="159" spans="1:5">
       <c r="A159">
         <v>159</v>
       </c>
@@ -4953,7 +4952,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1">
+    <row r="160" spans="1:5">
       <c r="A160">
         <v>160</v>
       </c>
@@ -4967,7 +4966,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1">
+    <row r="161" spans="1:5">
       <c r="A161">
         <v>161</v>
       </c>
@@ -4981,7 +4980,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1">
+    <row r="162" spans="1:5">
       <c r="A162">
         <v>162</v>
       </c>
@@ -4995,7 +4994,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1">
+    <row r="163" spans="1:5">
       <c r="A163">
         <v>163</v>
       </c>
@@ -5009,7 +5008,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1">
+    <row r="164" spans="1:5">
       <c r="A164">
         <v>164</v>
       </c>
@@ -5023,7 +5022,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1">
+    <row r="165" spans="1:5">
       <c r="A165">
         <v>165</v>
       </c>
@@ -5037,7 +5036,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1">
+    <row r="166" spans="1:5">
       <c r="A166">
         <v>166</v>
       </c>
@@ -5051,7 +5050,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1">
+    <row r="167" spans="1:5">
       <c r="A167">
         <v>167</v>
       </c>
@@ -5065,7 +5064,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1">
+    <row r="168" spans="1:5">
       <c r="A168">
         <v>168</v>
       </c>
@@ -5079,7 +5078,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1">
+    <row r="169" spans="1:5">
       <c r="A169">
         <v>169</v>
       </c>
@@ -5093,7 +5092,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1">
+    <row r="170" spans="1:5">
       <c r="A170">
         <v>170</v>
       </c>
@@ -5107,7 +5106,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1">
+    <row r="171" spans="1:5">
       <c r="A171">
         <v>171</v>
       </c>
@@ -5121,7 +5120,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1">
+    <row r="172" spans="1:5">
       <c r="A172">
         <v>172</v>
       </c>
@@ -5135,7 +5134,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1">
+    <row r="173" spans="1:5">
       <c r="A173">
         <v>173</v>
       </c>
@@ -5149,7 +5148,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1">
+    <row r="174" spans="1:5">
       <c r="A174">
         <v>174</v>
       </c>
@@ -5163,7 +5162,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1">
+    <row r="175" spans="1:5">
       <c r="A175">
         <v>175</v>
       </c>
@@ -5177,7 +5176,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1">
+    <row r="176" spans="1:5">
       <c r="A176">
         <v>176</v>
       </c>
@@ -5194,7 +5193,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1">
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>177</v>
       </c>
@@ -5211,7 +5210,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1">
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>178</v>
       </c>
@@ -5225,7 +5224,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1">
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>179</v>
       </c>
@@ -5239,7 +5238,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1">
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>180</v>
       </c>
@@ -5253,7 +5252,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1">
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>181</v>
       </c>
@@ -5267,7 +5266,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1">
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>182</v>
       </c>
@@ -5281,7 +5280,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1">
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>183</v>
       </c>
@@ -5295,7 +5294,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1">
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>184</v>
       </c>
@@ -5309,7 +5308,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1">
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>185</v>
       </c>
@@ -5326,7 +5325,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1">
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>186</v>
       </c>
@@ -5340,7 +5339,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1">
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>187</v>
       </c>
@@ -5354,7 +5353,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1">
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>188</v>
       </c>
@@ -5368,7 +5367,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1">
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>189</v>
       </c>
@@ -5385,7 +5384,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1">
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>190</v>
       </c>
@@ -5402,7 +5401,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1">
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>191</v>
       </c>
@@ -5419,7 +5418,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1">
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>192</v>
       </c>
@@ -5433,7 +5432,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1">
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>193</v>
       </c>
@@ -5447,7 +5446,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1">
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>194</v>
       </c>
@@ -5464,7 +5463,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1">
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>195</v>
       </c>
@@ -5478,7 +5477,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1">
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>196</v>
       </c>
@@ -5492,7 +5491,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1">
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>197</v>
       </c>
@@ -5506,7 +5505,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1">
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>198</v>
       </c>
@@ -5520,7 +5519,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1">
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>199</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1">
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>200</v>
       </c>
@@ -5548,7 +5547,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1">
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>201</v>
       </c>
@@ -5562,7 +5561,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1">
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>202</v>
       </c>
@@ -5576,7 +5575,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1">
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>203</v>
       </c>
@@ -5590,7 +5589,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1">
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>204</v>
       </c>
@@ -5604,7 +5603,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1">
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>205</v>
       </c>
@@ -5618,7 +5617,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1">
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>206</v>
       </c>
@@ -5635,7 +5634,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1">
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>207</v>
       </c>
@@ -5649,7 +5648,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1">
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>208</v>
       </c>
@@ -5666,7 +5665,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1">
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>209</v>
       </c>
@@ -5683,7 +5682,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1">
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>210</v>
       </c>
@@ -5700,7 +5699,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1">
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>211</v>
       </c>
@@ -5717,7 +5716,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1">
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>212</v>
       </c>
@@ -5734,7 +5733,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1">
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>213</v>
       </c>
@@ -5748,7 +5747,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1">
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>214</v>
       </c>
@@ -5765,7 +5764,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1">
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>215</v>
       </c>
@@ -5782,7 +5781,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1">
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>216</v>
       </c>
@@ -5796,7 +5795,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1">
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>217</v>
       </c>
@@ -5810,7 +5809,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1">
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>218</v>
       </c>
@@ -5827,7 +5826,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1">
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>219</v>
       </c>
@@ -5844,7 +5843,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1">
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>220</v>
       </c>
@@ -5858,7 +5857,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1">
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>221</v>
       </c>
@@ -5873,13 +5872,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H221" xr:uid="{744B3FD5-FCE0-1A4B-9CAE-4FA855AD149F}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H221" xr:uid="{744B3FD5-FCE0-1A4B-9CAE-4FA855AD149F}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5887,10 +5880,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF643AD-A9EE-3844-A6EF-66DEA59FC6E0}">
-  <dimension ref="B1:L7"/>
+  <dimension ref="B1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5898,7 +5891,7 @@
     <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:13">
       <c r="C1">
         <v>1</v>
       </c>
@@ -5930,7 +5923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>391</v>
       </c>
@@ -5965,7 +5958,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:13">
       <c r="B3" t="s">
         <v>393</v>
       </c>
@@ -6000,7 +5993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:13">
       <c r="B4" t="s">
         <v>394</v>
       </c>
@@ -6035,7 +6028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:13">
       <c r="B5" t="s">
         <v>395</v>
       </c>
@@ -6070,7 +6063,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:13">
       <c r="B6" t="s">
         <v>392</v>
       </c>
@@ -6105,7 +6098,7 @@
         <v>0.700326</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:13">
       <c r="B7" t="s">
         <v>396</v>
       </c>
@@ -6138,6 +6131,10 @@
       </c>
       <c r="L7">
         <v>0.90342091999999996</v>
+      </c>
+      <c r="M7">
+        <f>MAX(C7:L7)</f>
+        <v>0.91925727999999995</v>
       </c>
     </row>
   </sheetData>
